--- a/data/pca/factorExposure/factorExposure_2012-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01505039299922542</v>
+        <v>0.01422736293365873</v>
       </c>
       <c r="C2">
-        <v>-0.03082741583784197</v>
+        <v>0.02491657275688305</v>
       </c>
       <c r="D2">
-        <v>0.0157127587769652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01972595541669664</v>
+      </c>
+      <c r="E2">
+        <v>-0.01343481441318307</v>
+      </c>
+      <c r="F2">
+        <v>0.0260132178114214</v>
+      </c>
+      <c r="G2">
+        <v>0.001171477142745045</v>
+      </c>
+      <c r="H2">
+        <v>-0.03521058083259322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07459954343196537</v>
+        <v>0.08708580782224039</v>
       </c>
       <c r="C4">
-        <v>-0.05199718209828127</v>
+        <v>0.03579186629918114</v>
       </c>
       <c r="D4">
-        <v>0.08424220292444794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0716267897666483</v>
+      </c>
+      <c r="E4">
+        <v>-0.008484240487975508</v>
+      </c>
+      <c r="F4">
+        <v>0.03808084151648297</v>
+      </c>
+      <c r="G4">
+        <v>0.006979820041575283</v>
+      </c>
+      <c r="H4">
+        <v>0.03976050937258467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1123648362892543</v>
+        <v>0.122745967750898</v>
       </c>
       <c r="C6">
-        <v>-0.0493635937827052</v>
+        <v>0.03279833585574139</v>
       </c>
       <c r="D6">
-        <v>0.004039408828871953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01195068740342136</v>
+      </c>
+      <c r="E6">
+        <v>0.02337096432939101</v>
+      </c>
+      <c r="F6">
+        <v>0.05142658322864241</v>
+      </c>
+      <c r="G6">
+        <v>0.03519326987469782</v>
+      </c>
+      <c r="H6">
+        <v>-0.1171508152309292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05389140410784797</v>
+        <v>0.0638625579490584</v>
       </c>
       <c r="C7">
-        <v>-0.02614486649334605</v>
+        <v>0.01365329941436941</v>
       </c>
       <c r="D7">
-        <v>0.03615760139074377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05026312433099228</v>
+      </c>
+      <c r="E7">
+        <v>-0.03479088901610542</v>
+      </c>
+      <c r="F7">
+        <v>0.04337260891625086</v>
+      </c>
+      <c r="G7">
+        <v>-0.03773273548798146</v>
+      </c>
+      <c r="H7">
+        <v>0.01301277205673921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04058446096582467</v>
+        <v>0.04283173509664535</v>
       </c>
       <c r="C8">
-        <v>-0.0133526239455209</v>
+        <v>0.008985577361135109</v>
       </c>
       <c r="D8">
-        <v>0.05859040352581244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02430685199019807</v>
+      </c>
+      <c r="E8">
+        <v>-0.01916703770991449</v>
+      </c>
+      <c r="F8">
+        <v>0.06459851741493916</v>
+      </c>
+      <c r="G8">
+        <v>0.04981733482773116</v>
+      </c>
+      <c r="H8">
+        <v>-0.01802535723028498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06929109568261697</v>
+        <v>0.07878985897582275</v>
       </c>
       <c r="C9">
-        <v>-0.03926373844716178</v>
+        <v>0.02407627462586711</v>
       </c>
       <c r="D9">
-        <v>0.07592204533833202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06511621276436168</v>
+      </c>
+      <c r="E9">
+        <v>-0.02736973111592573</v>
+      </c>
+      <c r="F9">
+        <v>0.03008715659348378</v>
+      </c>
+      <c r="G9">
+        <v>0.01597808064549631</v>
+      </c>
+      <c r="H9">
+        <v>0.04354836990226556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03193930847653985</v>
+        <v>0.04517704059661114</v>
       </c>
       <c r="C10">
-        <v>-0.02833818497611153</v>
+        <v>0.05678907345798598</v>
       </c>
       <c r="D10">
-        <v>-0.175225280938391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1762356118242643</v>
+      </c>
+      <c r="E10">
+        <v>-0.04256728021479793</v>
+      </c>
+      <c r="F10">
+        <v>0.05357022959528831</v>
+      </c>
+      <c r="G10">
+        <v>-0.03424425399345467</v>
+      </c>
+      <c r="H10">
+        <v>-0.04892869561934581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07205822948141989</v>
+        <v>0.07680041767525024</v>
       </c>
       <c r="C11">
-        <v>-0.04150986872444568</v>
+        <v>0.02135975473810217</v>
       </c>
       <c r="D11">
-        <v>0.05856218073099539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06586581114028996</v>
+      </c>
+      <c r="E11">
+        <v>0.006035168820559773</v>
+      </c>
+      <c r="F11">
+        <v>0.03484316110512382</v>
+      </c>
+      <c r="G11">
+        <v>0.0251226845410422</v>
+      </c>
+      <c r="H11">
+        <v>0.07514094313378808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06091276077535613</v>
+        <v>0.06955515040009244</v>
       </c>
       <c r="C12">
-        <v>-0.05044278488955303</v>
+        <v>0.03349503224169895</v>
       </c>
       <c r="D12">
-        <v>0.04579906280924922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04931925781111994</v>
+      </c>
+      <c r="E12">
+        <v>-0.01333956820720092</v>
+      </c>
+      <c r="F12">
+        <v>0.02321684529143708</v>
+      </c>
+      <c r="G12">
+        <v>0.01201879090434236</v>
+      </c>
+      <c r="H12">
+        <v>0.03048447207443685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06543807641050041</v>
+        <v>0.06672888994542379</v>
       </c>
       <c r="C13">
-        <v>-0.03495106620597208</v>
+        <v>0.01923841893516133</v>
       </c>
       <c r="D13">
-        <v>0.04730803896573985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04051441436127572</v>
+      </c>
+      <c r="E13">
+        <v>-0.01261546631248851</v>
+      </c>
+      <c r="F13">
+        <v>0.02179204940216753</v>
+      </c>
+      <c r="G13">
+        <v>-0.000125700589631389</v>
+      </c>
+      <c r="H13">
+        <v>0.0530459102444587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03296254530022404</v>
+        <v>0.0390649617539034</v>
       </c>
       <c r="C14">
-        <v>-0.03157948644048954</v>
+        <v>0.02616662415824994</v>
       </c>
       <c r="D14">
-        <v>-0.005666479716390533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0146613526278449</v>
+      </c>
+      <c r="E14">
+        <v>-0.03222009897635494</v>
+      </c>
+      <c r="F14">
+        <v>0.01621599400540679</v>
+      </c>
+      <c r="G14">
+        <v>0.01867473222326396</v>
+      </c>
+      <c r="H14">
+        <v>0.0545566419880341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04024824567678633</v>
+        <v>0.04003564933701984</v>
       </c>
       <c r="C15">
-        <v>-0.008576186250983822</v>
+        <v>0.001804621456671087</v>
       </c>
       <c r="D15">
-        <v>0.02004885156254015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00791699907799958</v>
+      </c>
+      <c r="E15">
+        <v>-0.03748250781285804</v>
+      </c>
+      <c r="F15">
+        <v>0.0005596687190728004</v>
+      </c>
+      <c r="G15">
+        <v>0.02729687648914563</v>
+      </c>
+      <c r="H15">
+        <v>0.02620983415322592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06103130220983532</v>
+        <v>0.07168681834375971</v>
       </c>
       <c r="C16">
-        <v>-0.03881088251113456</v>
+        <v>0.02377084314522386</v>
       </c>
       <c r="D16">
-        <v>0.05084132751385162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06191579086994141</v>
+      </c>
+      <c r="E16">
+        <v>-0.006028556347609249</v>
+      </c>
+      <c r="F16">
+        <v>0.03125958825078553</v>
+      </c>
+      <c r="G16">
+        <v>0.012096525891116</v>
+      </c>
+      <c r="H16">
+        <v>0.0480403137293131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06353428894710142</v>
+        <v>0.0625044723714389</v>
       </c>
       <c r="C20">
-        <v>-0.02342905440416413</v>
+        <v>0.006644022318236366</v>
       </c>
       <c r="D20">
-        <v>0.04802802277394059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04060535597223094</v>
+      </c>
+      <c r="E20">
+        <v>-0.01743015570251713</v>
+      </c>
+      <c r="F20">
+        <v>0.02840918389768631</v>
+      </c>
+      <c r="G20">
+        <v>0.01880827563035748</v>
+      </c>
+      <c r="H20">
+        <v>0.04242753493540633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02670652257966738</v>
+        <v>0.02675579868712262</v>
       </c>
       <c r="C21">
-        <v>0.001414295550977632</v>
+        <v>-0.009125684149761787</v>
       </c>
       <c r="D21">
-        <v>0.02020715574387351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02288677139707917</v>
+      </c>
+      <c r="E21">
+        <v>-0.04434827620583352</v>
+      </c>
+      <c r="F21">
+        <v>-0.009662906604760869</v>
+      </c>
+      <c r="G21">
+        <v>0.003695274494835578</v>
+      </c>
+      <c r="H21">
+        <v>-0.04589800775430732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07846381495531086</v>
+        <v>0.06965472634876364</v>
       </c>
       <c r="C22">
-        <v>-0.05789132714090763</v>
+        <v>0.03200334821505695</v>
       </c>
       <c r="D22">
-        <v>0.1385469065627063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09584454568760065</v>
+      </c>
+      <c r="E22">
+        <v>-0.5997250985876094</v>
+      </c>
+      <c r="F22">
+        <v>-0.1094230055372457</v>
+      </c>
+      <c r="G22">
+        <v>-0.1399321870944911</v>
+      </c>
+      <c r="H22">
+        <v>-0.1417884673015115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07943497241076532</v>
+        <v>0.07055163928536337</v>
       </c>
       <c r="C23">
-        <v>-0.05660305686877949</v>
+        <v>0.03070676306323713</v>
       </c>
       <c r="D23">
-        <v>0.1398694301334077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0968938094583926</v>
+      </c>
+      <c r="E23">
+        <v>-0.6019376694001962</v>
+      </c>
+      <c r="F23">
+        <v>-0.1088507746702498</v>
+      </c>
+      <c r="G23">
+        <v>-0.1353491893189967</v>
+      </c>
+      <c r="H23">
+        <v>-0.1365395065067378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07569722274851669</v>
+        <v>0.08051292220648543</v>
       </c>
       <c r="C24">
-        <v>-0.05001452031366137</v>
+        <v>0.0289559102453175</v>
       </c>
       <c r="D24">
-        <v>0.06235223517506409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06395214354403181</v>
+      </c>
+      <c r="E24">
+        <v>-0.01465253679377184</v>
+      </c>
+      <c r="F24">
+        <v>0.03893474050802685</v>
+      </c>
+      <c r="G24">
+        <v>0.02210625916918601</v>
+      </c>
+      <c r="H24">
+        <v>0.03639519319059906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07467488833273356</v>
+        <v>0.07930364285714668</v>
       </c>
       <c r="C25">
-        <v>-0.05283538672513517</v>
+        <v>0.0333760627165807</v>
       </c>
       <c r="D25">
-        <v>0.06529285396686391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0525916692132476</v>
+      </c>
+      <c r="E25">
+        <v>-0.02196578653957579</v>
+      </c>
+      <c r="F25">
+        <v>0.03244156089819784</v>
+      </c>
+      <c r="G25">
+        <v>0.03342551521979741</v>
+      </c>
+      <c r="H25">
+        <v>0.04129890837752827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04471038463878504</v>
+        <v>0.04499446865784809</v>
       </c>
       <c r="C26">
-        <v>-0.008346864029588116</v>
+        <v>-0.001209738581933678</v>
       </c>
       <c r="D26">
-        <v>0.01615905859911466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02092995858192078</v>
+      </c>
+      <c r="E26">
+        <v>-0.04114361522315343</v>
+      </c>
+      <c r="F26">
+        <v>0.03867850504952434</v>
+      </c>
+      <c r="G26">
+        <v>0.005078115487141069</v>
+      </c>
+      <c r="H26">
+        <v>0.05455519443600444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05376695821675295</v>
+        <v>0.0710260205427615</v>
       </c>
       <c r="C28">
-        <v>-0.07201481877092596</v>
+        <v>0.1096078983656954</v>
       </c>
       <c r="D28">
-        <v>-0.3011993725606972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2977186181678255</v>
+      </c>
+      <c r="E28">
+        <v>-0.03413435591436555</v>
+      </c>
+      <c r="F28">
+        <v>0.06346491379697851</v>
+      </c>
+      <c r="G28">
+        <v>0.02786742978940752</v>
+      </c>
+      <c r="H28">
+        <v>-0.04244470672281863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04391113662171983</v>
+        <v>0.04712720315423559</v>
       </c>
       <c r="C29">
-        <v>-0.02914944298363269</v>
+        <v>0.02274778553446241</v>
       </c>
       <c r="D29">
-        <v>0.008709757464323667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01227156068125564</v>
+      </c>
+      <c r="E29">
+        <v>-0.06350664293460587</v>
+      </c>
+      <c r="F29">
+        <v>0.01445131818541663</v>
+      </c>
+      <c r="G29">
+        <v>0.00738235155443265</v>
+      </c>
+      <c r="H29">
+        <v>0.0754972142668409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1285362489362986</v>
+        <v>0.1265212223015043</v>
       </c>
       <c r="C30">
-        <v>-0.08476572751093402</v>
+        <v>0.05196472142956129</v>
       </c>
       <c r="D30">
-        <v>0.1024835694712894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0798084730484877</v>
+      </c>
+      <c r="E30">
+        <v>-0.0789085263682564</v>
+      </c>
+      <c r="F30">
+        <v>0.02159272430241535</v>
+      </c>
+      <c r="G30">
+        <v>0.07320573654631966</v>
+      </c>
+      <c r="H30">
+        <v>-0.05792844988894995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04661761359291763</v>
+        <v>0.04874513513699646</v>
       </c>
       <c r="C31">
-        <v>-0.02236832090273995</v>
+        <v>0.01083404996854087</v>
       </c>
       <c r="D31">
-        <v>0.02583722520750616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03351869604967751</v>
+      </c>
+      <c r="E31">
+        <v>-0.0241677444945227</v>
+      </c>
+      <c r="F31">
+        <v>0.006003454191207199</v>
+      </c>
+      <c r="G31">
+        <v>-0.01314231952464062</v>
+      </c>
+      <c r="H31">
+        <v>0.06682918879662601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03835434866026882</v>
+        <v>0.04016094195600649</v>
       </c>
       <c r="C32">
-        <v>-0.02383616378273773</v>
+        <v>0.02103651333816903</v>
       </c>
       <c r="D32">
-        <v>0.02236363627234527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.009479395387320075</v>
+      </c>
+      <c r="E32">
+        <v>-0.05623145356723105</v>
+      </c>
+      <c r="F32">
+        <v>-0.009616382240049601</v>
+      </c>
+      <c r="G32">
+        <v>0.03570741612321672</v>
+      </c>
+      <c r="H32">
+        <v>0.02676763638333275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0856279451077758</v>
+        <v>0.09420981391867472</v>
       </c>
       <c r="C33">
-        <v>-0.03803855156737482</v>
+        <v>0.01953949362373233</v>
       </c>
       <c r="D33">
-        <v>0.05547265040173594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04801889748643906</v>
+      </c>
+      <c r="E33">
+        <v>-0.01765448240582216</v>
+      </c>
+      <c r="F33">
+        <v>0.01001676798197614</v>
+      </c>
+      <c r="G33">
+        <v>0.004648065626842477</v>
+      </c>
+      <c r="H33">
+        <v>0.05681365198020871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0591768616499608</v>
+        <v>0.06426505175334454</v>
       </c>
       <c r="C34">
-        <v>-0.02449191490231809</v>
+        <v>0.008694851372553098</v>
       </c>
       <c r="D34">
-        <v>0.05388911560354608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04978313020002152</v>
+      </c>
+      <c r="E34">
+        <v>-0.01017653758021951</v>
+      </c>
+      <c r="F34">
+        <v>0.0220249911699805</v>
+      </c>
+      <c r="G34">
+        <v>0.01294266338491959</v>
+      </c>
+      <c r="H34">
+        <v>0.0512356772590855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03640012928551482</v>
+        <v>0.03816711676757696</v>
       </c>
       <c r="C35">
-        <v>-0.006957890479370627</v>
+        <v>0.0008542470518302767</v>
       </c>
       <c r="D35">
-        <v>0.01747649000766247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01445271929998739</v>
+      </c>
+      <c r="E35">
+        <v>-0.02155182118601809</v>
+      </c>
+      <c r="F35">
+        <v>-0.0180917079576827</v>
+      </c>
+      <c r="G35">
+        <v>-0.005280175536654193</v>
+      </c>
+      <c r="H35">
+        <v>0.01988545024934731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02423712009023927</v>
+        <v>0.02918353898252074</v>
       </c>
       <c r="C36">
-        <v>-0.0176488598589927</v>
+        <v>0.01372677583128948</v>
       </c>
       <c r="D36">
-        <v>0.02140669216042685</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01696270875540445</v>
+      </c>
+      <c r="E36">
+        <v>-0.03076933376892113</v>
+      </c>
+      <c r="F36">
+        <v>0.02538517819020776</v>
+      </c>
+      <c r="G36">
+        <v>-0.003588258704845396</v>
+      </c>
+      <c r="H36">
+        <v>0.04061563599288093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04325167193672231</v>
+        <v>0.04452482515437034</v>
       </c>
       <c r="C38">
-        <v>-0.002124797369367213</v>
+        <v>-0.005526198007267064</v>
       </c>
       <c r="D38">
-        <v>0.02083176389608634</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02148836588695454</v>
+      </c>
+      <c r="E38">
+        <v>-0.05338190412157717</v>
+      </c>
+      <c r="F38">
+        <v>-0.008127023442603572</v>
+      </c>
+      <c r="G38">
+        <v>0.003977592488796876</v>
+      </c>
+      <c r="H38">
+        <v>0.02138872902718475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09215100807809794</v>
+        <v>0.09993029724312649</v>
       </c>
       <c r="C39">
-        <v>-0.06710996608519985</v>
+        <v>0.044300069920418</v>
       </c>
       <c r="D39">
-        <v>0.05924363387513615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06906699949080543</v>
+      </c>
+      <c r="E39">
+        <v>-0.006733474714206964</v>
+      </c>
+      <c r="F39">
+        <v>0.001401054729993433</v>
+      </c>
+      <c r="G39">
+        <v>0.04844327579290062</v>
+      </c>
+      <c r="H39">
+        <v>0.02971204153812045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07992132059493161</v>
+        <v>0.06308781448004078</v>
       </c>
       <c r="C40">
-        <v>-0.03436884213474159</v>
+        <v>0.00532521823846856</v>
       </c>
       <c r="D40">
-        <v>0.009355688342775469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03200829232453582</v>
+      </c>
+      <c r="E40">
+        <v>-0.04363338536562878</v>
+      </c>
+      <c r="F40">
+        <v>-0.04177679387357178</v>
+      </c>
+      <c r="G40">
+        <v>0.02711852993045127</v>
+      </c>
+      <c r="H40">
+        <v>-0.1002139441883731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04350078483102526</v>
+        <v>0.0454937708347636</v>
       </c>
       <c r="C41">
-        <v>-0.005240035946569987</v>
+        <v>-0.005069514111194042</v>
       </c>
       <c r="D41">
-        <v>0.03743598236744624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03258930079752691</v>
+      </c>
+      <c r="E41">
+        <v>-0.003785536508143943</v>
+      </c>
+      <c r="F41">
+        <v>-0.01435182954990984</v>
+      </c>
+      <c r="G41">
+        <v>0.01326057517523592</v>
+      </c>
+      <c r="H41">
+        <v>0.02332245412175329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05279976217512192</v>
+        <v>0.05960305674870264</v>
       </c>
       <c r="C43">
-        <v>-0.02561961075724921</v>
+        <v>0.01529672888046095</v>
       </c>
       <c r="D43">
-        <v>0.01741257466005331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02972743636854706</v>
+      </c>
+      <c r="E43">
+        <v>-0.02348022781562172</v>
+      </c>
+      <c r="F43">
+        <v>0.01342446633559038</v>
+      </c>
+      <c r="G43">
+        <v>-0.0122853854140544</v>
+      </c>
+      <c r="H43">
+        <v>0.06564001773835972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09681861358233947</v>
+        <v>0.09374838411294605</v>
       </c>
       <c r="C44">
-        <v>-0.08313011204130499</v>
+        <v>0.05287770882468575</v>
       </c>
       <c r="D44">
-        <v>0.07511032289487664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07093460231507191</v>
+      </c>
+      <c r="E44">
+        <v>-0.07404848810702834</v>
+      </c>
+      <c r="F44">
+        <v>0.08066113153849486</v>
+      </c>
+      <c r="G44">
+        <v>0.02998330963482771</v>
+      </c>
+      <c r="H44">
+        <v>0.05163223677288885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02737981112527559</v>
+        <v>0.03510026225276077</v>
       </c>
       <c r="C46">
-        <v>-0.01568605580285566</v>
+        <v>0.01024718203923437</v>
       </c>
       <c r="D46">
-        <v>0.03168984294347286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03646027748285573</v>
+      </c>
+      <c r="E46">
+        <v>-0.034258219918256</v>
+      </c>
+      <c r="F46">
+        <v>0.0137869428105414</v>
+      </c>
+      <c r="G46">
+        <v>0.003327664398221244</v>
+      </c>
+      <c r="H46">
+        <v>0.02395094820962214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03480683456112576</v>
+        <v>0.04132171119858488</v>
       </c>
       <c r="C47">
-        <v>-0.02283532757550086</v>
+        <v>0.01829596870726</v>
       </c>
       <c r="D47">
-        <v>0.0008979156315024478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005932050393214587</v>
+      </c>
+      <c r="E47">
+        <v>-0.04424729325703607</v>
+      </c>
+      <c r="F47">
+        <v>-0.01073876580802198</v>
+      </c>
+      <c r="G47">
+        <v>-0.02911248116096752</v>
+      </c>
+      <c r="H47">
+        <v>0.02207274386986505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.035189210112469</v>
+        <v>0.03885746981047637</v>
       </c>
       <c r="C48">
-        <v>-0.01775161235155752</v>
+        <v>0.01014926278447582</v>
       </c>
       <c r="D48">
-        <v>0.0333299661168174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02060271137212751</v>
+      </c>
+      <c r="E48">
+        <v>-0.04229144267069861</v>
+      </c>
+      <c r="F48">
+        <v>0.009804240109491508</v>
+      </c>
+      <c r="G48">
+        <v>0.01672801096653355</v>
+      </c>
+      <c r="H48">
+        <v>0.0264250180055659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1645762073329169</v>
+        <v>0.1971758425734723</v>
       </c>
       <c r="C49">
-        <v>-0.04800913499842346</v>
+        <v>0.03038042298199684</v>
       </c>
       <c r="D49">
-        <v>0.006811365438968945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02825030607095938</v>
+      </c>
+      <c r="E49">
+        <v>0.1719221957587478</v>
+      </c>
+      <c r="F49">
+        <v>0.04915551988515417</v>
+      </c>
+      <c r="G49">
+        <v>-0.1223108346459577</v>
+      </c>
+      <c r="H49">
+        <v>-0.2574016547971291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04134703507347347</v>
+        <v>0.04534903978928252</v>
       </c>
       <c r="C50">
-        <v>-0.01883309103181519</v>
+        <v>0.009720810475365124</v>
       </c>
       <c r="D50">
-        <v>0.04557759530430647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03865029629295075</v>
+      </c>
+      <c r="E50">
+        <v>-0.04067419415389918</v>
+      </c>
+      <c r="F50">
+        <v>0.007375455509592868</v>
+      </c>
+      <c r="G50">
+        <v>-0.006187272089907749</v>
+      </c>
+      <c r="H50">
+        <v>0.06963743922492865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0288834215476463</v>
+        <v>0.03387996889368958</v>
       </c>
       <c r="C51">
-        <v>-0.01096595243423966</v>
+        <v>0.00647653757823976</v>
       </c>
       <c r="D51">
-        <v>0.001755941409504468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.003039706088242166</v>
+      </c>
+      <c r="E51">
+        <v>-0.008453544100291463</v>
+      </c>
+      <c r="F51">
+        <v>0.009560012806236428</v>
+      </c>
+      <c r="G51">
+        <v>-0.01239258832502719</v>
+      </c>
+      <c r="H51">
+        <v>-0.01631902892161331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1570865795030265</v>
+        <v>0.1612740226585802</v>
       </c>
       <c r="C53">
-        <v>-0.0709135077007</v>
+        <v>0.04344294229536908</v>
       </c>
       <c r="D53">
-        <v>0.003378583548347382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02679404075016835</v>
+      </c>
+      <c r="E53">
+        <v>0.03529483564473266</v>
+      </c>
+      <c r="F53">
+        <v>0.0005702363690747227</v>
+      </c>
+      <c r="G53">
+        <v>0.01009636652803287</v>
+      </c>
+      <c r="H53">
+        <v>0.1979725866928869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05686747549279661</v>
+        <v>0.05781241266133864</v>
       </c>
       <c r="C54">
-        <v>-0.02133667651489471</v>
+        <v>0.0116054961536033</v>
       </c>
       <c r="D54">
-        <v>0.01609333738199166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0152121919914858</v>
+      </c>
+      <c r="E54">
+        <v>-0.05585559074544531</v>
+      </c>
+      <c r="F54">
+        <v>0.01177085646319842</v>
+      </c>
+      <c r="G54">
+        <v>0.0431168328821224</v>
+      </c>
+      <c r="H54">
+        <v>0.04186087221734203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006514569403163</v>
+        <v>0.1036986904202757</v>
       </c>
       <c r="C55">
-        <v>-0.0482960232607375</v>
+        <v>0.02954929299398209</v>
       </c>
       <c r="D55">
-        <v>0.02618691746328867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03077346145768912</v>
+      </c>
+      <c r="E55">
+        <v>-0.006102306029618319</v>
+      </c>
+      <c r="F55">
+        <v>0.01015600964264267</v>
+      </c>
+      <c r="G55">
+        <v>0.01469373595381922</v>
+      </c>
+      <c r="H55">
+        <v>0.1541190988069754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1525691568394107</v>
+        <v>0.1588029061972673</v>
       </c>
       <c r="C56">
-        <v>-0.08199145364095861</v>
+        <v>0.0518797449865577</v>
       </c>
       <c r="D56">
-        <v>0.01045736859274079</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04000991433578532</v>
+      </c>
+      <c r="E56">
+        <v>0.02015431181663375</v>
+      </c>
+      <c r="F56">
+        <v>0.02137097760041602</v>
+      </c>
+      <c r="G56">
+        <v>0.007602218110773619</v>
+      </c>
+      <c r="H56">
+        <v>0.2028640444056033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1315112184736505</v>
+        <v>0.09934924866985972</v>
       </c>
       <c r="C58">
-        <v>0.005735655747632577</v>
+        <v>-0.04927845222079618</v>
       </c>
       <c r="D58">
-        <v>0.02042359843401628</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03283145438711266</v>
+      </c>
+      <c r="E58">
+        <v>-0.1448611788854879</v>
+      </c>
+      <c r="F58">
+        <v>0.005235347750841727</v>
+      </c>
+      <c r="G58">
+        <v>-0.08220756187850287</v>
+      </c>
+      <c r="H58">
+        <v>-0.1931501129194014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1271405171021409</v>
+        <v>0.1477602461583794</v>
       </c>
       <c r="C59">
-        <v>-0.07963267982892276</v>
+        <v>0.1151071456678589</v>
       </c>
       <c r="D59">
-        <v>-0.3837827030444894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3530415038413186</v>
+      </c>
+      <c r="E59">
+        <v>-0.03210171122504042</v>
+      </c>
+      <c r="F59">
+        <v>0.004132196543686002</v>
+      </c>
+      <c r="G59">
+        <v>-0.01270631666798279</v>
+      </c>
+      <c r="H59">
+        <v>0.01341086965647424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.209456002992977</v>
+        <v>0.2386049866723624</v>
       </c>
       <c r="C60">
-        <v>-0.0892557738521355</v>
+        <v>0.05750365941718223</v>
       </c>
       <c r="D60">
-        <v>0.01836180695583861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04786821065210693</v>
+      </c>
+      <c r="E60">
+        <v>0.1168741959305036</v>
+      </c>
+      <c r="F60">
+        <v>0.05677484721947375</v>
+      </c>
+      <c r="G60">
+        <v>-0.009601036922414957</v>
+      </c>
+      <c r="H60">
+        <v>-0.1478679267549095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08250683322807639</v>
+        <v>0.08767249057514941</v>
       </c>
       <c r="C61">
-        <v>-0.04693958267099695</v>
+        <v>0.02932926293735901</v>
       </c>
       <c r="D61">
-        <v>0.03438998310596174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04410791300306123</v>
+      </c>
+      <c r="E61">
+        <v>-0.006383150561672687</v>
+      </c>
+      <c r="F61">
+        <v>0.0005077366254311053</v>
+      </c>
+      <c r="G61">
+        <v>0.01534097573886027</v>
+      </c>
+      <c r="H61">
+        <v>0.06716538270216192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1300203229408575</v>
+        <v>0.1353809740856989</v>
       </c>
       <c r="C62">
-        <v>-0.05493832929438801</v>
+        <v>0.02732669421257004</v>
       </c>
       <c r="D62">
-        <v>0.01920894150101807</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04697759454462011</v>
+      </c>
+      <c r="E62">
+        <v>0.05945151966826304</v>
+      </c>
+      <c r="F62">
+        <v>-0.006331493090754631</v>
+      </c>
+      <c r="G62">
+        <v>0.05969718339042815</v>
+      </c>
+      <c r="H62">
+        <v>0.2089120749733476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05230800339175312</v>
+        <v>0.05200976916702363</v>
       </c>
       <c r="C63">
-        <v>-0.02270628582191378</v>
+        <v>0.01311568371039739</v>
       </c>
       <c r="D63">
-        <v>0.02857824886320041</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02109398214571002</v>
+      </c>
+      <c r="E63">
+        <v>-0.04798277363886487</v>
+      </c>
+      <c r="F63">
+        <v>-0.002074337019703301</v>
+      </c>
+      <c r="G63">
+        <v>0.0241426737032501</v>
+      </c>
+      <c r="H63">
+        <v>0.03563123013168883</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1051527303037397</v>
+        <v>0.1089317496130418</v>
       </c>
       <c r="C64">
-        <v>-0.02805535462036685</v>
+        <v>0.0118442850426516</v>
       </c>
       <c r="D64">
-        <v>0.03349195802035057</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02952619791237842</v>
+      </c>
+      <c r="E64">
+        <v>-0.03593525895855081</v>
+      </c>
+      <c r="F64">
+        <v>0.04405813112704065</v>
+      </c>
+      <c r="G64">
+        <v>0.05844535548721947</v>
+      </c>
+      <c r="H64">
+        <v>0.02800852747867886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1303443616589083</v>
+        <v>0.1301328384044507</v>
       </c>
       <c r="C65">
-        <v>-0.05695049608193525</v>
+        <v>0.0374744824084312</v>
       </c>
       <c r="D65">
-        <v>0.004343350215222028</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01259817878705172</v>
+      </c>
+      <c r="E65">
+        <v>0.006310714736396389</v>
+      </c>
+      <c r="F65">
+        <v>0.05937585177279042</v>
+      </c>
+      <c r="G65">
+        <v>0.06471411649625942</v>
+      </c>
+      <c r="H65">
+        <v>-0.1400018950481781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1494098003946598</v>
+        <v>0.1518753138065304</v>
       </c>
       <c r="C66">
-        <v>-0.06498641280114524</v>
+        <v>0.03036361794941447</v>
       </c>
       <c r="D66">
-        <v>0.09953868520580395</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.101631556693317</v>
+      </c>
+      <c r="E66">
+        <v>0.02033892540758734</v>
+      </c>
+      <c r="F66">
+        <v>0.003465372618249898</v>
+      </c>
+      <c r="G66">
+        <v>0.06085002414445748</v>
+      </c>
+      <c r="H66">
+        <v>0.09014319781740332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07595773247001054</v>
+        <v>0.08485340615771785</v>
       </c>
       <c r="C67">
-        <v>-0.00902990481804602</v>
+        <v>-0.002284430358938916</v>
       </c>
       <c r="D67">
-        <v>0.02400376239496303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03333971507795587</v>
+      </c>
+      <c r="E67">
+        <v>-0.01822733046471321</v>
+      </c>
+      <c r="F67">
+        <v>0.01331059736036883</v>
+      </c>
+      <c r="G67">
+        <v>-0.01105882750770604</v>
+      </c>
+      <c r="H67">
+        <v>0.03040593347659928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06090173549317231</v>
+        <v>0.06548448275774324</v>
       </c>
       <c r="C68">
-        <v>-0.05181743669406549</v>
+        <v>0.08273636784875191</v>
       </c>
       <c r="D68">
-        <v>-0.2569814138798489</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2632320175937828</v>
+      </c>
+      <c r="E68">
+        <v>-0.04021688205871196</v>
+      </c>
+      <c r="F68">
+        <v>0.0136701029139994</v>
+      </c>
+      <c r="G68">
+        <v>-0.006803680334251457</v>
+      </c>
+      <c r="H68">
+        <v>0.01680523086518477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05280860951493318</v>
+        <v>0.05205417580093213</v>
       </c>
       <c r="C69">
-        <v>-0.01453390524620267</v>
+        <v>0.002357707580746584</v>
       </c>
       <c r="D69">
-        <v>0.02681542453525791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02031146420157198</v>
+      </c>
+      <c r="E69">
+        <v>-0.02631088657130911</v>
+      </c>
+      <c r="F69">
+        <v>-0.01391199820671319</v>
+      </c>
+      <c r="G69">
+        <v>-0.002923977212500518</v>
+      </c>
+      <c r="H69">
+        <v>0.04864266166188113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002517821059661551</v>
+        <v>0.02653731065397379</v>
       </c>
       <c r="C70">
-        <v>0.008524185102997803</v>
+        <v>-0.003486003050972466</v>
       </c>
       <c r="D70">
-        <v>-0.01245442598603371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006526159116217602</v>
+      </c>
+      <c r="E70">
+        <v>0.02240558591044161</v>
+      </c>
+      <c r="F70">
+        <v>0.008308004936850355</v>
+      </c>
+      <c r="G70">
+        <v>-0.02535728361847491</v>
+      </c>
+      <c r="H70">
+        <v>-0.01558139902218748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05882845487191822</v>
+        <v>0.06932923958795754</v>
       </c>
       <c r="C71">
-        <v>-0.05168051701087479</v>
+        <v>0.09081239917331466</v>
       </c>
       <c r="D71">
-        <v>-0.2928467643519774</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2899745460634169</v>
+      </c>
+      <c r="E71">
+        <v>-0.03747943104332906</v>
+      </c>
+      <c r="F71">
+        <v>0.04484501686936362</v>
+      </c>
+      <c r="G71">
+        <v>-0.002661956903016693</v>
+      </c>
+      <c r="H71">
+        <v>0.01454734529699458</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1425829161034886</v>
+        <v>0.1445147761273761</v>
       </c>
       <c r="C72">
-        <v>-0.05660511360032495</v>
+        <v>0.03025247316773647</v>
       </c>
       <c r="D72">
-        <v>0.003322736724689767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003357005774047283</v>
+      </c>
+      <c r="E72">
+        <v>0.06582065264804497</v>
+      </c>
+      <c r="F72">
+        <v>-0.157523044759238</v>
+      </c>
+      <c r="G72">
+        <v>0.1177267062062087</v>
+      </c>
+      <c r="H72">
+        <v>-0.01648682688441182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2865375872602621</v>
+        <v>0.2867912918091605</v>
       </c>
       <c r="C73">
-        <v>-0.08698129345611058</v>
+        <v>0.01942891814841684</v>
       </c>
       <c r="D73">
-        <v>0.04226543872182015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.100887397988699</v>
+      </c>
+      <c r="E73">
+        <v>0.236479371771404</v>
+      </c>
+      <c r="F73">
+        <v>0.07425381349577344</v>
+      </c>
+      <c r="G73">
+        <v>-0.2271711314246262</v>
+      </c>
+      <c r="H73">
+        <v>-0.4475049486626511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08340507113379921</v>
+        <v>0.09191170900281245</v>
       </c>
       <c r="C74">
-        <v>-0.07475182302272289</v>
+        <v>0.05527718091666806</v>
       </c>
       <c r="D74">
-        <v>0.01137344743118787</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04003965801024263</v>
+      </c>
+      <c r="E74">
+        <v>0.005874785235318296</v>
+      </c>
+      <c r="F74">
+        <v>-0.005770347303190048</v>
+      </c>
+      <c r="G74">
+        <v>-0.029456669740705</v>
+      </c>
+      <c r="H74">
+        <v>0.1256584171424674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1002605866632549</v>
+        <v>0.1039174059887053</v>
       </c>
       <c r="C75">
-        <v>-0.0473461112667781</v>
+        <v>0.02290644472041939</v>
       </c>
       <c r="D75">
-        <v>0.0139495853372792</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0251188404282053</v>
+      </c>
+      <c r="E75">
+        <v>0.003691097684403329</v>
+      </c>
+      <c r="F75">
+        <v>0.002327015554789931</v>
+      </c>
+      <c r="G75">
+        <v>-0.008019630007307023</v>
+      </c>
+      <c r="H75">
+        <v>0.1085235314509938</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1341047978407523</v>
+        <v>0.1425042169939089</v>
       </c>
       <c r="C76">
-        <v>-0.07661651357172014</v>
+        <v>0.05012379650975535</v>
       </c>
       <c r="D76">
-        <v>0.03168584755032185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05339716275074733</v>
+      </c>
+      <c r="E76">
+        <v>-0.01428246995020801</v>
+      </c>
+      <c r="F76">
+        <v>0.03401193590648114</v>
+      </c>
+      <c r="G76">
+        <v>0.01407211862869087</v>
+      </c>
+      <c r="H76">
+        <v>0.2205681200239641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1174111252686582</v>
+        <v>0.1030583241700284</v>
       </c>
       <c r="C77">
-        <v>-0.008015054807801517</v>
+        <v>-0.02268272831198889</v>
       </c>
       <c r="D77">
-        <v>0.08740694318805768</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03917669633871835</v>
+      </c>
+      <c r="E77">
+        <v>-0.05634949694822167</v>
+      </c>
+      <c r="F77">
+        <v>0.1131286188965401</v>
+      </c>
+      <c r="G77">
+        <v>0.8372567677184718</v>
+      </c>
+      <c r="H77">
+        <v>-0.2630937811669721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1077455973420204</v>
+        <v>0.1517016928685432</v>
       </c>
       <c r="C78">
-        <v>-0.03349093340888971</v>
+        <v>0.02902903822117312</v>
       </c>
       <c r="D78">
-        <v>0.08971343496538657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07729387303294002</v>
+      </c>
+      <c r="E78">
+        <v>-0.05049170155247386</v>
+      </c>
+      <c r="F78">
+        <v>0.06767894551337163</v>
+      </c>
+      <c r="G78">
+        <v>0.05913504249129926</v>
+      </c>
+      <c r="H78">
+        <v>-0.07346944171150717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1492215313136696</v>
+        <v>0.1489156243148716</v>
       </c>
       <c r="C79">
-        <v>-0.06725494788847604</v>
+        <v>0.03375967090606598</v>
       </c>
       <c r="D79">
-        <v>0.02222893967660081</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03965016888689263</v>
+      </c>
+      <c r="E79">
+        <v>0.01996409015067865</v>
+      </c>
+      <c r="F79">
+        <v>0.01449807100880663</v>
+      </c>
+      <c r="G79">
+        <v>0.002491657769502318</v>
+      </c>
+      <c r="H79">
+        <v>0.1696899367607453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04124597154017402</v>
+        <v>0.04176856914494927</v>
       </c>
       <c r="C80">
-        <v>-0.01933035769005205</v>
+        <v>0.01189238039008596</v>
       </c>
       <c r="D80">
-        <v>0.03236289076449555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01723994841563155</v>
+      </c>
+      <c r="E80">
+        <v>0.03068126776669969</v>
+      </c>
+      <c r="F80">
+        <v>0.003346364621174696</v>
+      </c>
+      <c r="G80">
+        <v>-0.02451137326106866</v>
+      </c>
+      <c r="H80">
+        <v>0.03381431206261671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1214780958843363</v>
+        <v>0.1235332918986255</v>
       </c>
       <c r="C81">
-        <v>-0.05666678964957496</v>
+        <v>0.03158512151484238</v>
       </c>
       <c r="D81">
-        <v>0.03244276340160772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03114740245679305</v>
+      </c>
+      <c r="E81">
+        <v>-0.006240003431902711</v>
+      </c>
+      <c r="F81">
+        <v>0.003840940928424333</v>
+      </c>
+      <c r="G81">
+        <v>-0.02930479505244972</v>
+      </c>
+      <c r="H81">
+        <v>0.1491716597228084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1328133458130605</v>
+        <v>0.1313181217575694</v>
       </c>
       <c r="C82">
-        <v>-0.07024917512038968</v>
+        <v>0.04315828634889944</v>
       </c>
       <c r="D82">
-        <v>0.0118328843488701</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03797108648893552</v>
+      </c>
+      <c r="E82">
+        <v>0.024351315686908</v>
+      </c>
+      <c r="F82">
+        <v>0.04286288701120795</v>
+      </c>
+      <c r="G82">
+        <v>-0.01313369741075803</v>
+      </c>
+      <c r="H82">
+        <v>0.2345645087789932</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06949030930109423</v>
+        <v>0.08236787949978905</v>
       </c>
       <c r="C83">
-        <v>0.02770559335896693</v>
+        <v>-0.03943458293027728</v>
       </c>
       <c r="D83">
-        <v>0.01369705166442285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02098849868137731</v>
+      </c>
+      <c r="E83">
+        <v>-0.02129955700518036</v>
+      </c>
+      <c r="F83">
+        <v>0.04475460232605464</v>
+      </c>
+      <c r="G83">
+        <v>-0.06694634715817135</v>
+      </c>
+      <c r="H83">
+        <v>-0.02289782911754516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02941686289123954</v>
+        <v>0.0361803216976044</v>
       </c>
       <c r="C84">
-        <v>-0.02818346656337466</v>
+        <v>0.01994991202585979</v>
       </c>
       <c r="D84">
-        <v>0.03438704848245385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03577823372560104</v>
+      </c>
+      <c r="E84">
+        <v>-0.03059379672463628</v>
+      </c>
+      <c r="F84">
+        <v>-0.04486350548238761</v>
+      </c>
+      <c r="G84">
+        <v>-0.05040346555354859</v>
+      </c>
+      <c r="H84">
+        <v>0.02232962497990797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1176845016949685</v>
+        <v>0.1209491723172124</v>
       </c>
       <c r="C85">
-        <v>-0.04068235464788734</v>
+        <v>0.0172958117959704</v>
       </c>
       <c r="D85">
-        <v>0.05171457889513242</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03903376774556409</v>
+      </c>
+      <c r="E85">
+        <v>-0.01522487324873111</v>
+      </c>
+      <c r="F85">
+        <v>0.02687865903759992</v>
+      </c>
+      <c r="G85">
+        <v>-0.0120741627250719</v>
+      </c>
+      <c r="H85">
+        <v>0.1448283134674839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05342132008481806</v>
+        <v>0.05680213542257553</v>
       </c>
       <c r="C86">
-        <v>-0.02107065437346581</v>
+        <v>0.0082911508087673</v>
       </c>
       <c r="D86">
-        <v>0.06270977722433121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03366836927473367</v>
+      </c>
+      <c r="E86">
+        <v>-0.04364905707683812</v>
+      </c>
+      <c r="F86">
+        <v>0.03372507249372824</v>
+      </c>
+      <c r="G86">
+        <v>-0.0426555876263619</v>
+      </c>
+      <c r="H86">
+        <v>-0.03367944039148344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1231950719757426</v>
+        <v>0.124769683896246</v>
       </c>
       <c r="C87">
-        <v>-0.06561445908076453</v>
+        <v>0.03035868383088365</v>
       </c>
       <c r="D87">
-        <v>0.07174586256598667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07023807442735616</v>
+      </c>
+      <c r="E87">
+        <v>-0.02336088702303807</v>
+      </c>
+      <c r="F87">
+        <v>0.01969563984498234</v>
+      </c>
+      <c r="G87">
+        <v>0.1290040213541635</v>
+      </c>
+      <c r="H87">
+        <v>-0.06799932353911833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05353078848573938</v>
+        <v>0.06209756849889237</v>
       </c>
       <c r="C88">
-        <v>-0.0280306971065501</v>
+        <v>0.01738518617864297</v>
       </c>
       <c r="D88">
-        <v>0.02702950112400168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03932195064547024</v>
+      </c>
+      <c r="E88">
+        <v>-0.01541572987665347</v>
+      </c>
+      <c r="F88">
+        <v>0.01267182345649762</v>
+      </c>
+      <c r="G88">
+        <v>0.01314126496788362</v>
+      </c>
+      <c r="H88">
+        <v>0.04102836867163506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09121816003182312</v>
+        <v>0.1081008149690234</v>
       </c>
       <c r="C89">
-        <v>-0.0731416115821852</v>
+        <v>0.1154249726606695</v>
       </c>
       <c r="D89">
-        <v>-0.3336565097531377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3400260547150545</v>
+      </c>
+      <c r="E89">
+        <v>-0.07365181826760224</v>
+      </c>
+      <c r="F89">
+        <v>0.06750695337855886</v>
+      </c>
+      <c r="G89">
+        <v>-0.03197935957766466</v>
+      </c>
+      <c r="H89">
+        <v>0.007025132320947527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07372867171822819</v>
+        <v>0.08599406044239001</v>
       </c>
       <c r="C90">
-        <v>-0.06214513060399111</v>
+        <v>0.09619272390840941</v>
       </c>
       <c r="D90">
-        <v>-0.2832581379446282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2806058098930095</v>
+      </c>
+      <c r="E90">
+        <v>-0.05170356834135562</v>
+      </c>
+      <c r="F90">
+        <v>0.03530685246412458</v>
+      </c>
+      <c r="G90">
+        <v>0.02357823478252598</v>
+      </c>
+      <c r="H90">
+        <v>-0.009195740504522619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08909974737588937</v>
+        <v>0.09093694814144773</v>
       </c>
       <c r="C91">
-        <v>-0.04973316025237522</v>
+        <v>0.02725254256427936</v>
       </c>
       <c r="D91">
-        <v>0.02173317571217166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03374723891519732</v>
+      </c>
+      <c r="E91">
+        <v>-0.004330095608174574</v>
+      </c>
+      <c r="F91">
+        <v>-0.001589733785999043</v>
+      </c>
+      <c r="G91">
+        <v>-0.02454320471225935</v>
+      </c>
+      <c r="H91">
+        <v>0.09376750640956677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07726082906089708</v>
+        <v>0.08944885109799518</v>
       </c>
       <c r="C92">
-        <v>-0.0767744735128109</v>
+        <v>0.1180900046436888</v>
       </c>
       <c r="D92">
-        <v>-0.3410166453536782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3344942285315727</v>
+      </c>
+      <c r="E92">
+        <v>-0.04564348691735022</v>
+      </c>
+      <c r="F92">
+        <v>0.03711201550003797</v>
+      </c>
+      <c r="G92">
+        <v>0.01084722615433117</v>
+      </c>
+      <c r="H92">
+        <v>0.0158622761972945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06687944134458818</v>
+        <v>0.08264354610034576</v>
       </c>
       <c r="C93">
-        <v>-0.06627657172257065</v>
+        <v>0.1067806063933539</v>
       </c>
       <c r="D93">
-        <v>-0.3002399130883808</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2956702708460182</v>
+      </c>
+      <c r="E93">
+        <v>-0.02693549608579032</v>
+      </c>
+      <c r="F93">
+        <v>0.03146525367867555</v>
+      </c>
+      <c r="G93">
+        <v>0.01325872319238706</v>
+      </c>
+      <c r="H93">
+        <v>0.0002571956513251914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.13502690692062</v>
+        <v>0.1302649059246971</v>
       </c>
       <c r="C94">
-        <v>-0.0431864383157126</v>
+        <v>0.01049982777259388</v>
       </c>
       <c r="D94">
-        <v>0.04149958599547343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04899187439311759</v>
+      </c>
+      <c r="E94">
+        <v>0.01884629862807138</v>
+      </c>
+      <c r="F94">
+        <v>0.01244154820951662</v>
+      </c>
+      <c r="G94">
+        <v>-0.05063291961521291</v>
+      </c>
+      <c r="H94">
+        <v>0.1110929578308224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1208563986205162</v>
+        <v>0.1290562422439931</v>
       </c>
       <c r="C95">
-        <v>-0.01893212860596445</v>
+        <v>-0.006507921990166635</v>
       </c>
       <c r="D95">
-        <v>0.0562133190675165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06237235060475297</v>
+      </c>
+      <c r="E95">
+        <v>-0.007482553293467108</v>
+      </c>
+      <c r="F95">
+        <v>0.05610599132355967</v>
+      </c>
+      <c r="G95">
+        <v>0.02526179752320406</v>
+      </c>
+      <c r="H95">
+        <v>-0.0490075363031811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2170138535742975</v>
+        <v>0.1985948541062043</v>
       </c>
       <c r="C97">
-        <v>-0.04102257633138105</v>
+        <v>-0.001168716822783582</v>
       </c>
       <c r="D97">
-        <v>-0.07968974491248021</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07111129337674001</v>
+      </c>
+      <c r="E97">
+        <v>0.1233780176082453</v>
+      </c>
+      <c r="F97">
+        <v>-0.920933029854475</v>
+      </c>
+      <c r="G97">
+        <v>0.0985351911455396</v>
+      </c>
+      <c r="H97">
+        <v>-0.02807170429091655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2444468830666583</v>
+        <v>0.273656489880585</v>
       </c>
       <c r="C98">
-        <v>-0.05427754645842535</v>
+        <v>0.01453971762957149</v>
       </c>
       <c r="D98">
-        <v>0.02067043763777908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05036371402595127</v>
+      </c>
+      <c r="E98">
+        <v>0.2023702143957484</v>
+      </c>
+      <c r="F98">
+        <v>0.04725921624080631</v>
+      </c>
+      <c r="G98">
+        <v>-0.2884289176970464</v>
+      </c>
+      <c r="H98">
+        <v>-0.1657901567824401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3938822484043011</v>
+        <v>0.2570834510117813</v>
       </c>
       <c r="C99">
-        <v>0.900333981243757</v>
+        <v>-0.9233975297413385</v>
       </c>
       <c r="D99">
-        <v>-0.06731014666667999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.217278411770007</v>
+      </c>
+      <c r="E99">
+        <v>-0.06926391685372367</v>
+      </c>
+      <c r="F99">
+        <v>0.05947423032230872</v>
+      </c>
+      <c r="G99">
+        <v>-0.008148646222576517</v>
+      </c>
+      <c r="H99">
+        <v>0.07584342154078674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04370864676820591</v>
+        <v>0.04704449866036329</v>
       </c>
       <c r="C101">
-        <v>-0.02927284910246909</v>
+        <v>0.02298288672462271</v>
       </c>
       <c r="D101">
-        <v>0.009508529026545108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01255804848830358</v>
+      </c>
+      <c r="E101">
+        <v>-0.06342952281811622</v>
+      </c>
+      <c r="F101">
+        <v>0.01398469825492401</v>
+      </c>
+      <c r="G101">
+        <v>0.006533410068470317</v>
+      </c>
+      <c r="H101">
+        <v>0.07448554551476494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
